--- a/Overall Stepwise Performance Metrics.xlsx
+++ b/Overall Stepwise Performance Metrics.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER/2nd ^0 3rd Benchmarks/Stepwise Performance Metrics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/2nd ^0 3rd Benchmarks/Stepwise Performance Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="317" documentId="13_ncr:1_{C201F272-0E2D-4A06-9A33-DD4C4D14A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E93CF1-35B4-417B-8BEB-5BF53301F08E}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="13_ncr:1_{C201F272-0E2D-4A06-9A33-DD4C4D14A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7117872-11F5-4B23-A227-75D50F9D82E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Backward" sheetId="3" r:id="rId1"/>
     <sheet name="Forward" sheetId="2" r:id="rId2"/>
-    <sheet name="FS (MASS)" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Colnames" sheetId="6" r:id="rId3"/>
+    <sheet name="FS (MASS)" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="95">
   <si>
     <t>Dataset Range</t>
   </si>
@@ -261,6 +262,69 @@
   </si>
   <si>
     <t>0.75-15-1-1 to 0.75-15-10-500</t>
+  </si>
+  <si>
+    <t>BE's TPR</t>
+  </si>
+  <si>
+    <t>BE's TNR</t>
+  </si>
+  <si>
+    <t>BE's FPR</t>
+  </si>
+  <si>
+    <t>Underspecified Models Selected by BE</t>
+  </si>
+  <si>
+    <t>Correct Models Selected by BE</t>
+  </si>
+  <si>
+    <t>Overspecified Models Selected by BE</t>
+  </si>
+  <si>
+    <t>Num of Regressions Estimated</t>
+  </si>
+  <si>
+    <t>Models Selected by BE with at least one Structural Variable Omitted</t>
+  </si>
+  <si>
+    <t>Models Selected by BE with at least one Extraneous Variable Included</t>
+  </si>
+  <si>
+    <t>FS's TPR</t>
+  </si>
+  <si>
+    <t>FS's TNR</t>
+  </si>
+  <si>
+    <t>FS's FPR</t>
+  </si>
+  <si>
+    <t>Underspecified Models Selected by FS</t>
+  </si>
+  <si>
+    <t>Correct Models Selected by FS</t>
+  </si>
+  <si>
+    <t>Overspecified Models Selected by FS</t>
+  </si>
+  <si>
+    <t>Models Selected by FS with at least one Structural Variable Omitted</t>
+  </si>
+  <si>
+    <t>Models Selected by FS with at least one Extraneous Variable Included</t>
+  </si>
+  <si>
+    <t>DS_name</t>
+  </si>
+  <si>
+    <t>Regressors_Selected_by_BE</t>
+  </si>
+  <si>
+    <t>Regressors_Selected_by_FS</t>
+  </si>
+  <si>
+    <t>Structural_Variables</t>
   </si>
 </sst>
 </file>
@@ -317,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -459,12 +523,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,6 +591,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -805,7 +909,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,8 +920,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +942,7 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
@@ -870,7 +974,7 @@
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="11">
         <v>5000</v>
       </c>
       <c r="C2">
@@ -903,7 +1007,7 @@
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="11">
         <v>5000</v>
       </c>
       <c r="C3">
@@ -936,7 +1040,7 @@
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>10000</v>
       </c>
       <c r="C4">
@@ -969,7 +1073,7 @@
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>5000</v>
       </c>
       <c r="C5">
@@ -1002,7 +1106,7 @@
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>5000</v>
       </c>
       <c r="C6">
@@ -1035,7 +1139,7 @@
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>5000</v>
       </c>
       <c r="C7">
@@ -1068,7 +1172,7 @@
       <c r="A8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="11">
         <v>10000</v>
       </c>
       <c r="C8">
@@ -1101,7 +1205,7 @@
       <c r="A9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="11">
         <v>10000</v>
       </c>
       <c r="C9">
@@ -1125,15 +1229,15 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="12">
-        <v>9558</v>
+      <c r="J9">
+        <v>9571</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="11">
         <v>5000</v>
       </c>
       <c r="C10">
@@ -1162,34 +1266,34 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B11">
-        <v>5000</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+      <c r="D11" s="21">
         <v>0.86</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="21">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
         <v>308</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="21">
         <v>4692</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="21">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
         <v>4692</v>
       </c>
     </row>
@@ -1197,7 +1301,7 @@
       <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>10000</v>
       </c>
       <c r="C12">
@@ -1229,7 +1333,7 @@
       <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>5000</v>
       </c>
       <c r="C13">
@@ -1261,7 +1365,7 @@
       <c r="A14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>10000</v>
       </c>
       <c r="C14">
@@ -1293,7 +1397,7 @@
       <c r="A15" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="11">
         <v>5000</v>
       </c>
       <c r="C15">
@@ -1325,7 +1429,7 @@
       <c r="A16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="11">
         <v>5000</v>
       </c>
       <c r="C16">
@@ -1357,7 +1461,7 @@
       <c r="A17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="11">
         <v>5000</v>
       </c>
       <c r="C17">
@@ -1389,7 +1493,7 @@
       <c r="A18" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>10000</v>
       </c>
       <c r="C18">
@@ -1421,7 +1525,7 @@
       <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>5000</v>
       </c>
       <c r="C19">
@@ -1439,8 +1543,8 @@
       <c r="G19">
         <v>114</v>
       </c>
-      <c r="H19">
-        <v>114</v>
+      <c r="H19" s="12">
+        <v>4886</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1453,7 +1557,7 @@
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="11">
         <v>5000</v>
       </c>
       <c r="C20">
@@ -1483,35 +1587,35 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B21">
-        <v>5000</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="B21" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="21">
         <v>0.159</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
         <v>171</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="21">
         <f t="shared" ref="H21:H22" si="1">B21-G21</f>
         <v>4829</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
         <v>4829</v>
       </c>
     </row>
@@ -1519,7 +1623,7 @@
       <c r="A22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="11">
         <v>10000</v>
       </c>
       <c r="C22">
@@ -1544,7 +1648,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="20">
         <v>9995</v>
       </c>
     </row>
@@ -1552,7 +1656,7 @@
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>10000</v>
       </c>
       <c r="C23">
@@ -1584,7 +1688,7 @@
       <c r="A24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>5000</v>
       </c>
       <c r="C24">
@@ -1602,8 +1706,8 @@
       <c r="G24">
         <v>19</v>
       </c>
-      <c r="H24">
-        <v>19</v>
+      <c r="H24" s="12">
+        <v>4981</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1616,7 +1720,7 @@
       <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="11">
         <v>5000</v>
       </c>
       <c r="C25">
@@ -1634,8 +1738,8 @@
       <c r="G25">
         <v>27</v>
       </c>
-      <c r="H25">
-        <v>27</v>
+      <c r="H25" s="12">
+        <v>4973</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1648,7 +1752,7 @@
       <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="11">
         <v>5000</v>
       </c>
       <c r="C26">
@@ -1666,8 +1770,8 @@
       <c r="G26">
         <v>30</v>
       </c>
-      <c r="H26">
-        <v>30</v>
+      <c r="H26" s="12">
+        <v>4970</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1680,7 +1784,7 @@
       <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <v>10000</v>
       </c>
       <c r="C27">
@@ -1712,7 +1816,7 @@
       <c r="A28" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="11">
         <v>10000</v>
       </c>
       <c r="C28">
@@ -1741,34 +1845,34 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="14">
         <v>10000</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="21">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="21">
         <v>0.16500000000000001</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
         <v>307</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="21">
         <v>9693</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" s="12">
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
         <v>9693</v>
       </c>
     </row>
@@ -1776,7 +1880,7 @@
       <c r="A30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="11">
         <v>10000</v>
       </c>
       <c r="C30">
@@ -1808,7 +1912,7 @@
       <c r="A31" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <v>10000</v>
       </c>
       <c r="C31">
@@ -1840,7 +1944,7 @@
       <c r="A32" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="11">
         <v>5000</v>
       </c>
       <c r="C32">
@@ -1872,7 +1976,7 @@
       <c r="A33" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="11">
         <v>5000</v>
       </c>
       <c r="C33">
@@ -1904,7 +2008,7 @@
       <c r="A34" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="11">
         <v>5000</v>
       </c>
       <c r="C34">
@@ -1936,7 +2040,7 @@
       <c r="A35" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="11">
         <v>5000</v>
       </c>
       <c r="C35">
@@ -1968,7 +2072,7 @@
       <c r="A36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="11">
         <v>5000</v>
       </c>
       <c r="C36">
@@ -2000,7 +2104,7 @@
       <c r="A37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="11">
         <v>5000</v>
       </c>
       <c r="C37">
@@ -2032,7 +2136,7 @@
       <c r="A38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="11">
         <v>10000</v>
       </c>
       <c r="C38">
@@ -2064,7 +2168,7 @@
       <c r="A39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="11">
         <v>5000</v>
       </c>
       <c r="C39">
@@ -2093,7 +2197,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
+      <c r="A40" s="25"/>
+      <c r="B40" s="24">
         <f>SUM(B2:B39)</f>
         <v>260000</v>
       </c>
@@ -2119,7 +2224,7 @@
       </c>
       <c r="H40" s="8">
         <f>SUM(H2:H39)</f>
-        <v>236569</v>
+        <v>256189</v>
       </c>
       <c r="I40" s="6">
         <f>SUM(I2:I39)</f>
@@ -2127,7 +2232,7 @@
       </c>
       <c r="J40" s="9">
         <f>SUM(J2:J39)</f>
-        <v>256176</v>
+        <v>256189</v>
       </c>
     </row>
   </sheetData>
@@ -2139,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7F9CF-D0E3-46C5-9EE9-A505A21AFEDB}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:J41"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,35 +2622,35 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B12">
-        <v>5000</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+      <c r="D12" s="21">
         <v>0.86199999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="21">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="21">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
         <v>325</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="21">
         <v>4675</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="21">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
         <v>4675</v>
       </c>
     </row>
@@ -2825,47 +2930,47 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4848</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" s="12">
-        <v>4847</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+        <v>4848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B22">
-        <v>5000</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
+      <c r="B22" s="21">
+        <v>5000</v>
+      </c>
+      <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="21">
         <v>0.84599999999999997</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="21">
         <v>0.154</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
         <v>187</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="H22" s="22">
+        <v>4813</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="22">
         <v>4813</v>
       </c>
     </row>
@@ -2892,12 +2997,12 @@
         <v>19</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9981</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23">
         <v>9981</v>
       </c>
     </row>
@@ -2955,8 +3060,8 @@
       <c r="G25">
         <v>34</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" s="12">
+        <v>4966</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2987,14 +3092,14 @@
       <c r="G26">
         <v>32</v>
       </c>
-      <c r="H26">
-        <v>0</v>
+      <c r="H26" s="12">
+        <v>4966</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" s="12">
-        <v>4968</v>
+        <v>4966</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -3019,8 +3124,8 @@
       <c r="G27">
         <v>57</v>
       </c>
-      <c r="H27">
-        <v>0</v>
+      <c r="H27" s="12">
+        <v>4943</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3051,8 +3156,8 @@
       <c r="G28">
         <v>138</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" s="12">
+        <v>9862</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3093,35 +3198,35 @@
         <v>9762</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="21">
         <v>10000</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="21">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
         <v>0.84799999999999998</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="21">
         <v>0.152</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
         <v>395</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="21">
         <v>9605</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
+      <c r="I30" s="21">
+        <v>0</v>
+      </c>
+      <c r="J30" s="22">
         <v>9605</v>
       </c>
     </row>
@@ -3468,11 +3573,11 @@
       </c>
       <c r="G41" s="8">
         <f t="shared" ref="G41:J41" si="2">SUM(G2:G40)</f>
-        <v>4691</v>
+        <v>4690</v>
       </c>
       <c r="H41" s="8">
         <f t="shared" si="2"/>
-        <v>210929</v>
+        <v>255308</v>
       </c>
       <c r="I41" s="6">
         <f t="shared" si="2"/>
@@ -3480,7 +3585,7 @@
       </c>
       <c r="J41" s="9">
         <f t="shared" si="2"/>
-        <v>255309</v>
+        <v>255308</v>
       </c>
     </row>
   </sheetData>
@@ -3489,6 +3594,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE4E21D-1DC9-49FE-9F17-7687228AB46C}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="64.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4FFC31-6CC1-4B31-B637-C9CA380D6F63}">
   <dimension ref="A1:L38"/>
   <sheetViews>
@@ -3787,7 +3990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2319B7F6-FA3B-4F27-9E5F-750686230A75}">
   <dimension ref="A1:E17"/>
   <sheetViews>

--- a/Overall Stepwise Performance Metrics.xlsx
+++ b/Overall Stepwise Performance Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5c35402ec641340/Documents/Analytics Projects/EER project/2nd ^0 3rd Benchmarks/Stepwise Performance Metrics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="391" documentId="13_ncr:1_{C201F272-0E2D-4A06-9A33-DD4C4D14A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7117872-11F5-4B23-A227-75D50F9D82E9}"/>
+  <xr:revisionPtr revIDLastSave="403" documentId="13_ncr:1_{C201F272-0E2D-4A06-9A33-DD4C4D14A719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D574D319-909A-4C53-8AC7-7D3337961D3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3CE5768C-800C-48C0-8017-154ED30E26CE}"/>
   </bookViews>
@@ -381,7 +381,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -556,12 +556,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -598,6 +620,9 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -920,8 +945,8 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +1002,13 @@
       <c r="B2" s="11">
         <v>5000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="20">
         <v>0.14199999999999999</v>
       </c>
       <c r="F2">
@@ -992,7 +1017,7 @@
       <c r="G2">
         <v>45</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="20">
         <f>B2-G2</f>
         <v>4955</v>
       </c>
@@ -1010,13 +1035,13 @@
       <c r="B3" s="11">
         <v>5000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3">
         <v>0.86</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="F3">
@@ -1025,7 +1050,7 @@
       <c r="G3">
         <v>50</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H8" si="0">B3-G3</f>
         <v>4950</v>
       </c>
@@ -1043,13 +1068,13 @@
       <c r="B4" s="11">
         <v>10000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4">
         <v>0.86</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="F4">
@@ -1058,7 +1083,7 @@
       <c r="G4">
         <v>140</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>9860</v>
       </c>
@@ -1076,13 +1101,13 @@
       <c r="B5" s="11">
         <v>5000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5">
         <v>0.85799999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="12">
         <v>0.14199999999999999</v>
       </c>
       <c r="F5">
@@ -1091,7 +1116,7 @@
       <c r="G5">
         <v>79</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>4921</v>
       </c>
@@ -1109,13 +1134,13 @@
       <c r="B6" s="11">
         <v>5000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6">
         <v>0.85899999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="12">
         <v>0.14099999999999999</v>
       </c>
       <c r="F6">
@@ -1124,7 +1149,7 @@
       <c r="G6">
         <v>97</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
         <v>4903</v>
       </c>
@@ -1142,13 +1167,13 @@
       <c r="B7" s="11">
         <v>5000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7">
         <v>0.85899999999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="12">
         <v>0.14099999999999999</v>
       </c>
       <c r="F7">
@@ -1157,7 +1182,7 @@
       <c r="G7">
         <v>119</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>4881</v>
       </c>
@@ -1175,13 +1200,13 @@
       <c r="B8" s="11">
         <v>10000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
       <c r="D8">
         <v>0.86</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="F8">
@@ -1190,7 +1215,7 @@
       <c r="G8">
         <v>290</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>9710</v>
       </c>
@@ -1208,13 +1233,13 @@
       <c r="B9" s="11">
         <v>10000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9">
         <v>0.86</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="F9">
@@ -1223,7 +1248,7 @@
       <c r="G9">
         <v>429</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <v>9571</v>
       </c>
       <c r="I9">
@@ -1240,13 +1265,13 @@
       <c r="B10" s="11">
         <v>5000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10">
         <v>0.86</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="12">
         <v>0.14000000000000001</v>
       </c>
       <c r="F10">
@@ -1255,7 +1280,7 @@
       <c r="G10">
         <v>266</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>4734</v>
       </c>
       <c r="I10">
@@ -1272,13 +1297,13 @@
       <c r="B11" s="14">
         <v>5000</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
       <c r="D11" s="21">
         <v>0.86</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="22">
         <v>0.14000000000000001</v>
       </c>
       <c r="F11" s="21">
@@ -1287,7 +1312,7 @@
       <c r="G11" s="21">
         <v>308</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="22">
         <v>4692</v>
       </c>
       <c r="I11" s="21">
@@ -1304,13 +1329,13 @@
       <c r="B12" s="11">
         <v>10000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="11">
         <v>1</v>
       </c>
       <c r="D12">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="12">
         <v>0.16300000000000001</v>
       </c>
       <c r="F12">
@@ -1319,7 +1344,7 @@
       <c r="G12">
         <v>16</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="12">
         <v>9984</v>
       </c>
       <c r="I12">
@@ -1336,13 +1361,13 @@
       <c r="B13" s="11">
         <v>5000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13">
         <v>0.83599999999999997</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="12">
         <v>0.16400000000000001</v>
       </c>
       <c r="F13">
@@ -1351,7 +1376,7 @@
       <c r="G13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>4988</v>
       </c>
       <c r="I13">
@@ -1368,13 +1393,13 @@
       <c r="B14" s="11">
         <v>10000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="12">
         <v>0.16300000000000001</v>
       </c>
       <c r="F14">
@@ -1383,7 +1408,7 @@
       <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>9970</v>
       </c>
       <c r="I14">
@@ -1400,13 +1425,13 @@
       <c r="B15" s="11">
         <v>5000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>1</v>
       </c>
       <c r="D15">
         <v>0.83699999999999997</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="12">
         <v>0.16300000000000001</v>
       </c>
       <c r="F15">
@@ -1415,7 +1440,7 @@
       <c r="G15">
         <v>27</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>4973</v>
       </c>
       <c r="I15">
@@ -1432,13 +1457,13 @@
       <c r="B16" s="11">
         <v>5000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="12">
         <v>0.16500000000000001</v>
       </c>
       <c r="F16">
@@ -1447,7 +1472,7 @@
       <c r="G16">
         <v>21</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>4979</v>
       </c>
       <c r="I16">
@@ -1464,13 +1489,13 @@
       <c r="B17" s="11">
         <v>5000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
       <c r="D17">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="12">
         <v>0.16200000000000001</v>
       </c>
       <c r="F17">
@@ -1479,7 +1504,7 @@
       <c r="G17">
         <v>42</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>4958</v>
       </c>
       <c r="I17">
@@ -1496,13 +1521,13 @@
       <c r="B18" s="11">
         <v>10000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
       <c r="D18">
         <v>0.83799999999999997</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="12">
         <v>0.16200000000000001</v>
       </c>
       <c r="F18">
@@ -1511,7 +1536,7 @@
       <c r="G18">
         <v>119</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>9881</v>
       </c>
       <c r="I18">
@@ -1528,13 +1553,13 @@
       <c r="B19" s="11">
         <v>5000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>1</v>
       </c>
       <c r="D19">
         <v>0.84</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="12">
         <v>0.16</v>
       </c>
       <c r="F19">
@@ -1560,13 +1585,13 @@
       <c r="B20" s="11">
         <v>5000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
       <c r="D20">
         <v>0.84</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="12">
         <v>0.16</v>
       </c>
       <c r="F20">
@@ -1575,7 +1600,7 @@
       <c r="G20">
         <v>136</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <f>B20-G20</f>
         <v>4864</v>
       </c>
@@ -1593,13 +1618,13 @@
       <c r="B21" s="14">
         <v>5000</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="14">
         <v>1</v>
       </c>
       <c r="D21" s="21">
         <v>0.84099999999999997</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="22">
         <v>0.159</v>
       </c>
       <c r="F21" s="21">
@@ -1608,7 +1633,7 @@
       <c r="G21" s="21">
         <v>171</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="22">
         <f t="shared" ref="H21:H22" si="1">B21-G21</f>
         <v>4829</v>
       </c>
@@ -1626,13 +1651,13 @@
       <c r="B22" s="11">
         <v>10000</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="11">
         <v>1</v>
       </c>
       <c r="D22">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="12">
         <v>0.17199999999999999</v>
       </c>
       <c r="F22">
@@ -1641,7 +1666,7 @@
       <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="12">
         <f t="shared" si="1"/>
         <v>9995</v>
       </c>
@@ -1659,13 +1684,13 @@
       <c r="B23" s="11">
         <v>10000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
       <c r="D23">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="12">
         <v>0.17100000000000001</v>
       </c>
       <c r="F23">
@@ -1674,7 +1699,7 @@
       <c r="G23">
         <v>24</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="12">
         <v>9976</v>
       </c>
       <c r="I23">
@@ -1691,13 +1716,13 @@
       <c r="B24" s="11">
         <v>5000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
       <c r="D24">
         <v>0.83</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="12">
         <v>0.17</v>
       </c>
       <c r="F24">
@@ -1723,13 +1748,13 @@
       <c r="B25" s="11">
         <v>5000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="D25">
         <v>0.83</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="12">
         <v>0.17</v>
       </c>
       <c r="F25">
@@ -1755,13 +1780,13 @@
       <c r="B26" s="11">
         <v>5000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="12">
         <v>0.16800000000000001</v>
       </c>
       <c r="F26">
@@ -1787,13 +1812,13 @@
       <c r="B27" s="11">
         <v>10000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
       <c r="D27">
         <v>0.82899999999999996</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="12">
         <v>0.17100000000000001</v>
       </c>
       <c r="F27">
@@ -1802,7 +1827,7 @@
       <c r="G27">
         <v>24</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="12">
         <v>9976</v>
       </c>
       <c r="I27">
@@ -1819,13 +1844,13 @@
       <c r="B28" s="11">
         <v>10000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28">
         <v>0.83399999999999996</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="12">
         <v>0.16600000000000001</v>
       </c>
       <c r="F28">
@@ -1834,7 +1859,7 @@
       <c r="G28">
         <v>175</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="12">
         <v>9825</v>
       </c>
       <c r="I28">
@@ -1851,13 +1876,13 @@
       <c r="B29" s="14">
         <v>10000</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="14">
         <v>1</v>
       </c>
       <c r="D29" s="21">
         <v>0.83499999999999996</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="22">
         <v>0.16500000000000001</v>
       </c>
       <c r="F29" s="21">
@@ -1866,7 +1891,7 @@
       <c r="G29" s="21">
         <v>307</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="22">
         <v>9693</v>
       </c>
       <c r="I29" s="21">
@@ -1883,13 +1908,13 @@
       <c r="B30" s="11">
         <v>10000</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <v>1</v>
       </c>
       <c r="D30">
         <v>0.81499999999999995</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="12">
         <v>0.185</v>
       </c>
       <c r="F30">
@@ -1898,7 +1923,7 @@
       <c r="G30">
         <v>5</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="12">
         <v>9995</v>
       </c>
       <c r="I30">
@@ -1915,13 +1940,13 @@
       <c r="B31" s="11">
         <v>10000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="12">
         <v>0.182</v>
       </c>
       <c r="F31">
@@ -1930,7 +1955,7 @@
       <c r="G31">
         <v>25</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>9975</v>
       </c>
       <c r="I31">
@@ -1947,13 +1972,13 @@
       <c r="B32" s="11">
         <v>5000</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32">
         <v>0.82099999999999995</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="12">
         <v>0.17899999999999999</v>
       </c>
       <c r="F32">
@@ -1962,7 +1987,7 @@
       <c r="G32">
         <v>15</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <v>4985</v>
       </c>
       <c r="I32">
@@ -1979,13 +2004,13 @@
       <c r="B33" s="11">
         <v>5000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <v>1</v>
       </c>
       <c r="D33">
         <v>0.82299999999999995</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="12">
         <v>0.17699999999999999</v>
       </c>
       <c r="F33">
@@ -1994,7 +2019,7 @@
       <c r="G33">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <v>4980</v>
       </c>
       <c r="I33">
@@ -2011,13 +2036,13 @@
       <c r="B34" s="11">
         <v>5000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>1</v>
       </c>
       <c r="D34">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="12">
         <v>0.17599999999999999</v>
       </c>
       <c r="F34">
@@ -2026,7 +2051,7 @@
       <c r="G34">
         <v>37</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>4963</v>
       </c>
       <c r="I34">
@@ -2043,13 +2068,13 @@
       <c r="B35" s="11">
         <v>5000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
       <c r="D35">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="12">
         <v>0.17299999999999999</v>
       </c>
       <c r="F35">
@@ -2058,7 +2083,7 @@
       <c r="G35">
         <v>37</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="12">
         <v>4963</v>
       </c>
       <c r="I35">
@@ -2075,13 +2100,13 @@
       <c r="B36" s="11">
         <v>5000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <v>1</v>
       </c>
       <c r="D36">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="12">
         <v>0.17199999999999999</v>
       </c>
       <c r="F36">
@@ -2090,7 +2115,7 @@
       <c r="G36">
         <v>65</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>4935</v>
       </c>
       <c r="I36">
@@ -2107,13 +2132,13 @@
       <c r="B37" s="11">
         <v>5000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
       <c r="D37">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="12">
         <v>0.17199999999999999</v>
       </c>
       <c r="F37">
@@ -2122,7 +2147,7 @@
       <c r="G37">
         <v>90</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="12">
         <v>4910</v>
       </c>
       <c r="I37">
@@ -2139,13 +2164,13 @@
       <c r="B38" s="11">
         <v>10000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
       <c r="D38">
         <v>0.83</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="12">
         <v>0.17</v>
       </c>
       <c r="F38">
@@ -2154,7 +2179,7 @@
       <c r="G38">
         <v>235</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="12">
         <v>9765</v>
       </c>
       <c r="I38">
@@ -2171,13 +2196,13 @@
       <c r="B39" s="11">
         <v>5000</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="28">
         <v>1</v>
       </c>
       <c r="D39">
         <v>0.83199999999999996</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="26">
         <v>0.16800000000000001</v>
       </c>
       <c r="F39">
@@ -2186,7 +2211,7 @@
       <c r="G39">
         <v>160</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="26">
         <v>4840</v>
       </c>
       <c r="I39">
@@ -2242,10 +2267,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F7F9CF-D0E3-46C5-9EE9-A505A21AFEDB}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C40" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,7 +2287,7 @@
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2294,14 +2319,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="19">
         <v>5000</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2" s="19">
@@ -2310,13 +2335,13 @@
       <c r="E2" s="19">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>0</v>
       </c>
       <c r="G2" s="19">
         <v>51</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="20">
         <f>B2-G2</f>
         <v>4949</v>
       </c>
@@ -2327,14 +2352,14 @@
         <v>4949</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>5000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3">
@@ -2343,13 +2368,13 @@
       <c r="E3">
         <v>0.13700000000000001</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3">
         <v>53</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H9" si="0">B3-G3</f>
         <v>4947</v>
       </c>
@@ -2360,14 +2385,14 @@
         <v>4947</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B4">
         <v>10000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="11">
         <v>1</v>
       </c>
       <c r="D4">
@@ -2376,13 +2401,13 @@
       <c r="E4">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4">
         <v>145</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>9855</v>
       </c>
@@ -2393,14 +2418,14 @@
         <v>9855</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B5">
         <v>5000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>1</v>
       </c>
       <c r="D5">
@@ -2409,13 +2434,13 @@
       <c r="E5">
         <v>0.13900000000000001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5">
         <v>82</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="12">
         <f t="shared" si="0"/>
         <v>4918</v>
       </c>
@@ -2426,14 +2451,14 @@
         <v>4918</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B6">
         <v>5000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>1</v>
       </c>
       <c r="D6">
@@ -2442,13 +2467,13 @@
       <c r="E6">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6">
         <v>101</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="12">
         <f t="shared" si="0"/>
         <v>4899</v>
       </c>
@@ -2459,14 +2484,14 @@
         <v>4899</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>1</v>
       </c>
       <c r="D7">
@@ -2475,13 +2500,13 @@
       <c r="E7">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>0</v>
       </c>
       <c r="G7">
         <v>126</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>4874</v>
       </c>
@@ -2492,14 +2517,14 @@
         <v>4874</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B8">
         <v>5000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="11">
         <v>1</v>
       </c>
       <c r="D8">
@@ -2508,13 +2533,13 @@
       <c r="E8">
         <v>0.33</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="11">
         <v>0</v>
       </c>
       <c r="G8">
         <v>137</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="12">
         <f t="shared" si="0"/>
         <v>4863</v>
       </c>
@@ -2525,14 +2550,14 @@
         <v>4863</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B9">
         <v>5000</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="11">
         <v>1</v>
       </c>
       <c r="D9">
@@ -2541,13 +2566,13 @@
       <c r="E9">
         <v>0.44900000000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
       <c r="G9">
         <v>28</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="12">
         <f t="shared" si="0"/>
         <v>4972</v>
       </c>
@@ -2558,14 +2583,14 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B10">
         <v>10000</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
       <c r="D10">
@@ -2574,13 +2599,13 @@
       <c r="E10">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="11">
         <v>0</v>
       </c>
       <c r="G10">
         <v>442</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="12">
         <v>9558</v>
       </c>
       <c r="I10">
@@ -2590,14 +2615,14 @@
         <v>9558</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B11">
         <v>5000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="11">
         <v>1</v>
       </c>
       <c r="D11">
@@ -2606,13 +2631,13 @@
       <c r="E11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="11">
         <v>0</v>
       </c>
       <c r="G11">
         <v>270</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="12">
         <v>4730</v>
       </c>
       <c r="I11">
@@ -2622,14 +2647,14 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B12" s="21">
         <v>5000</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="21">
@@ -2638,13 +2663,13 @@
       <c r="E12" s="21">
         <v>0.13800000000000001</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="14">
         <v>0</v>
       </c>
       <c r="G12" s="21">
         <v>325</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="22">
         <v>4675</v>
       </c>
       <c r="I12" s="21">
@@ -2654,14 +2679,14 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B13">
         <v>10000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>1</v>
       </c>
       <c r="D13">
@@ -2670,30 +2695,31 @@
       <c r="E13">
         <v>0.155</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="12">
         <v>9980</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="27">
         <v>9980</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B14">
         <v>5000</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>1</v>
       </c>
       <c r="D14">
@@ -2702,13 +2728,13 @@
       <c r="E14">
         <v>0.155</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <v>0</v>
       </c>
       <c r="G14">
         <v>14</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="12">
         <v>4986</v>
       </c>
       <c r="I14">
@@ -2718,14 +2744,14 @@
         <v>4986</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B15">
         <v>10000</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>1</v>
       </c>
       <c r="D15">
@@ -2734,13 +2760,13 @@
       <c r="E15">
         <v>0.156</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="11">
         <v>0</v>
       </c>
       <c r="G15">
         <v>36</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="12">
         <v>9964</v>
       </c>
       <c r="I15">
@@ -2750,14 +2776,14 @@
         <v>9964</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>66</v>
       </c>
       <c r="B16">
         <v>5000</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="11">
         <v>1</v>
       </c>
       <c r="D16">
@@ -2766,13 +2792,13 @@
       <c r="E16">
         <v>0.156</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="11">
         <v>0</v>
       </c>
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="12">
         <v>4970</v>
       </c>
       <c r="I16">
@@ -2782,14 +2808,14 @@
         <v>4970</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B17">
         <v>5000</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
       <c r="D17">
@@ -2798,13 +2824,13 @@
       <c r="E17">
         <v>0.157</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="11">
         <v>0</v>
       </c>
       <c r="G17">
         <v>28</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="12">
         <v>4972</v>
       </c>
       <c r="I17">
@@ -2814,14 +2840,14 @@
         <v>4972</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>67</v>
       </c>
       <c r="B18">
         <v>5000</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>1</v>
       </c>
       <c r="D18">
@@ -2830,13 +2856,13 @@
       <c r="E18">
         <v>0.156</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="11">
         <v>0</v>
       </c>
       <c r="G18">
         <v>44</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="12">
         <v>4956</v>
       </c>
       <c r="I18">
@@ -2846,14 +2872,14 @@
         <v>4956</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B19">
         <v>10000</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="11">
         <v>1</v>
       </c>
       <c r="D19">
@@ -2862,13 +2888,13 @@
       <c r="E19">
         <v>0.156</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="11">
         <v>0</v>
       </c>
       <c r="G19">
         <v>138</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="12">
         <v>9862</v>
       </c>
       <c r="I19">
@@ -2878,14 +2904,14 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B20">
         <v>5000</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="11">
         <v>1</v>
       </c>
       <c r="D20">
@@ -2894,13 +2920,13 @@
       <c r="E20">
         <v>0.155</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="11">
         <v>0</v>
       </c>
       <c r="G20">
         <v>131</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="12">
         <v>4869</v>
       </c>
       <c r="I20">
@@ -2910,14 +2936,14 @@
         <v>4869</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B21">
         <v>5000</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="11">
         <v>1</v>
       </c>
       <c r="D21">
@@ -2926,13 +2952,13 @@
       <c r="E21">
         <v>0.154</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="11">
         <v>0</v>
       </c>
       <c r="G21">
         <v>152</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="12">
         <v>4848</v>
       </c>
       <c r="I21">
@@ -2942,14 +2968,14 @@
         <v>4848</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="21">
         <v>5000</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="14">
         <v>1</v>
       </c>
       <c r="D22" s="21">
@@ -2958,7 +2984,7 @@
       <c r="E22" s="21">
         <v>0.154</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="14">
         <v>0</v>
       </c>
       <c r="G22" s="21">
@@ -2974,14 +3000,14 @@
         <v>4813</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B23">
         <v>10000</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="11">
         <v>1</v>
       </c>
       <c r="D23">
@@ -2990,13 +3016,13 @@
       <c r="E23">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="11">
         <v>0</v>
       </c>
       <c r="G23">
         <v>19</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="12">
         <v>9981</v>
       </c>
       <c r="I23">
@@ -3005,15 +3031,16 @@
       <c r="J23">
         <v>9981</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B24">
         <v>10000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
       <c r="D24">
@@ -3022,13 +3049,13 @@
       <c r="E24">
         <v>0.14699999999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="11">
         <v>0</v>
       </c>
       <c r="G24">
         <v>48</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="12">
         <v>9952</v>
       </c>
       <c r="I24">
@@ -3038,14 +3065,14 @@
         <v>9952</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B25">
         <v>5000</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="11">
         <v>1</v>
       </c>
       <c r="D25">
@@ -3054,7 +3081,7 @@
       <c r="E25">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="11">
         <v>0</v>
       </c>
       <c r="G25">
@@ -3070,14 +3097,14 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B26">
         <v>5000</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26">
@@ -3086,7 +3113,7 @@
       <c r="E26">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="11">
         <v>0</v>
       </c>
       <c r="G26">
@@ -3102,14 +3129,14 @@
         <v>4966</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B27">
         <v>5000</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
       <c r="D27">
@@ -3118,7 +3145,7 @@
       <c r="E27">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="11">
         <v>0</v>
       </c>
       <c r="G27">
@@ -3134,14 +3161,14 @@
         <v>4943</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>10000</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="11">
         <v>1</v>
       </c>
       <c r="D28">
@@ -3150,7 +3177,7 @@
       <c r="E28">
         <v>0.15</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="11">
         <v>0</v>
       </c>
       <c r="G28">
@@ -3166,14 +3193,14 @@
         <v>9862</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B29">
         <v>10000</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="11">
         <v>1</v>
       </c>
       <c r="D29">
@@ -3182,13 +3209,13 @@
       <c r="E29">
         <v>0.151</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="11">
         <v>0</v>
       </c>
       <c r="G29">
         <v>238</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="12">
         <v>9762</v>
       </c>
       <c r="I29">
@@ -3198,14 +3225,14 @@
         <v>9762</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="21">
         <v>10000</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="14">
         <v>1</v>
       </c>
       <c r="D30" s="21">
@@ -3214,13 +3241,13 @@
       <c r="E30" s="21">
         <v>0.152</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="14">
         <v>0</v>
       </c>
       <c r="G30" s="21">
         <v>395</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="22">
         <v>9605</v>
       </c>
       <c r="I30" s="21">
@@ -3230,14 +3257,14 @@
         <v>9605</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B31">
         <v>10000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <v>1</v>
       </c>
       <c r="D31">
@@ -3246,30 +3273,31 @@
       <c r="E31">
         <v>0.13100000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="11">
         <v>0</v>
       </c>
       <c r="G31">
         <v>53</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="12">
         <v>9947</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="27">
         <v>9947</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B32">
         <v>10000</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
       <c r="D32">
@@ -3278,13 +3306,13 @@
       <c r="E32">
         <v>0.13600000000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="11">
         <v>0</v>
       </c>
       <c r="G32">
         <v>98</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="12">
         <v>9902</v>
       </c>
       <c r="I32">
@@ -3301,7 +3329,7 @@
       <c r="B33">
         <v>5000</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="11">
         <v>1</v>
       </c>
       <c r="D33">
@@ -3310,13 +3338,13 @@
       <c r="E33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="11">
         <v>0</v>
       </c>
       <c r="G33">
         <v>46</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="12">
         <v>4954</v>
       </c>
       <c r="I33">
@@ -3333,7 +3361,7 @@
       <c r="B34">
         <v>5000</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>1</v>
       </c>
       <c r="D34">
@@ -3342,13 +3370,13 @@
       <c r="E34">
         <v>0.14099999999999999</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="11">
         <v>0</v>
       </c>
       <c r="G34">
         <v>72</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="12">
         <v>4928</v>
       </c>
       <c r="I34">
@@ -3365,7 +3393,7 @@
       <c r="B35">
         <v>5000</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
       <c r="D35">
@@ -3374,13 +3402,13 @@
       <c r="E35">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="11">
         <v>0</v>
       </c>
       <c r="G35">
         <v>70</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="12">
         <v>4930</v>
       </c>
       <c r="I35">
@@ -3397,7 +3425,7 @@
       <c r="B36">
         <v>5000</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="11">
         <v>1</v>
       </c>
       <c r="D36">
@@ -3406,13 +3434,13 @@
       <c r="E36">
         <v>0.14499999999999999</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="11">
         <v>0</v>
       </c>
       <c r="G36">
         <v>101</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="12">
         <v>4899</v>
       </c>
       <c r="I36">
@@ -3429,7 +3457,7 @@
       <c r="B37">
         <v>5000</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
       <c r="D37">
@@ -3438,13 +3466,13 @@
       <c r="E37">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="11">
         <v>0</v>
       </c>
       <c r="G37">
         <v>111</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="12">
         <v>4889</v>
       </c>
       <c r="I37">
@@ -3461,7 +3489,7 @@
       <c r="B38">
         <v>5000</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
       <c r="D38">
@@ -3470,13 +3498,13 @@
       <c r="E38">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="11">
         <v>0</v>
       </c>
       <c r="G38">
         <v>133</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="12">
         <v>4867</v>
       </c>
       <c r="I38">
@@ -3493,7 +3521,7 @@
       <c r="B39">
         <v>10000</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="11">
         <v>1</v>
       </c>
       <c r="D39">
@@ -3502,13 +3530,13 @@
       <c r="E39">
         <v>0.151</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="11">
         <v>0</v>
       </c>
       <c r="G39">
         <v>322</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="12">
         <v>9678</v>
       </c>
       <c r="I39">
@@ -3525,7 +3553,7 @@
       <c r="B40">
         <v>5000</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="28">
         <v>1</v>
       </c>
       <c r="D40">
@@ -3534,13 +3562,13 @@
       <c r="E40">
         <v>0.154</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="28">
         <v>0</v>
       </c>
       <c r="G40">
         <v>183</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="26">
         <v>4817</v>
       </c>
       <c r="I40">
